--- a/0. Source Layer/components/reports/Sparebanken_Midt-Norge(Bank).xlsx
+++ b/0. Source Layer/components/reports/Sparebanken_Midt-Norge(Bank).xlsx
@@ -567,44 +567,44 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0e83a8d8-b870-4565-b4c5-bdae05f42730</t>
+          <t>8235535e-0873-43ef-91ca-879383cf8377</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tele Celular Sul Participacoes S.A.</t>
+          <t>Mirtronics Inc.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12/7/1961</t>
+          <t>5/2/1962</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>office</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>667-875-8361</t>
+          <t>556-124-9965</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sales@telecelularsulparticipacoessa.org</t>
+          <t>info@mirtronicsinc.org</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -622,47 +622,47 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>$42,953,573,432.00</t>
+          <t>$74,935,525,226.00</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>$95,968,487,368.00</t>
+          <t>$11,345,964,903.00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$77,106,972,216.00</t>
+          <t>$94,937,332,560.00</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>$66,218,880,851.00</t>
+          <t>$97,759,420,548.00</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>21208434703</v>
+        <v>84659536459</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>$7,927,513,280.00</t>
+          <t>$8,769,417,596.00</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>4041447625776824</t>
+          <t>4929298333215259</t>
         </is>
       </c>
       <c r="X2" t="n">
@@ -670,37 +670,37 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>$33,525,624,182.00</t>
+          <t>$42,231,385,011.00</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>$20,077,807,292.00</t>
+          <t>$35,257,297,762.00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>$30,039,415,797.00</t>
+          <t>$84,430,151,650.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>940197ff-21a7-4911-85ba-123f71ab5779</t>
+          <t>3bb57501-4ef9-479f-9e3d-2dac7c920e39</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CP Ships Ltd.</t>
+          <t>Etruscan Resources Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4/13/1987</t>
+          <t>6/19/1992</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -709,21 +709,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>office</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>512-887-1880</t>
+          <t>160-009-9526</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>headquarters@cpshipsltd.org</t>
+          <t>hr@etruscanresourcesinc.org</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -741,65 +741,65 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>$87,819,480,015.00</t>
+          <t>$84,557,990,474.00</t>
         </is>
       </c>
       <c r="N3" t="n">
         <v>9</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>$10,768,097,283.00</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$74,268,120,402.00</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>6</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>$43,463,645,515.00</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>66971505890</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>$36,063,902,484.00</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>4024007178872460</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
         <v>5</v>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>$13,119,933,439.00</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$60,326,148,324.00</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>8</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>$60,940,147,547.00</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>90892766990</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>$37,431,605,225.00</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>4716065483541991</t>
-        </is>
-      </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>$31,769,026,241.00</t>
+          <t>$66,913,170,981.00</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>$54,323,696,149.00</t>
+          <t>$92,085,749,415.00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>$65,556,249,259.00</t>
+          <t>$34,667,368,868.00</t>
         </is>
       </c>
     </row>
